--- a/P1/in/Week of 02-27-2023/0005_Week-of-02-27-2023.xlsx
+++ b/P1/in/Week of 02-27-2023/0005_Week-of-02-27-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature_Program\Michael-Lozano-P1\P1\in\Week of 02-27-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2B491B-6B66-4B95-B6BD-81D5CE4116BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1148B58A-F1B1-4ECD-820F-23F140190888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24570" yWindow="-2865" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26445" yWindow="-2850" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0005" sheetId="1" r:id="rId1"/>
@@ -366,7 +366,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/P1/in/Week of 02-27-2023/0005_Week-of-02-27-2023.xlsx
+++ b/P1/in/Week of 02-27-2023/0005_Week-of-02-27-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature_Program\Michael-Lozano-P1\P1\in\Week of 02-27-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1148B58A-F1B1-4ECD-820F-23F140190888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF5DA9C-CD17-47E3-9B7A-169C58BA40CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26445" yWindow="-2850" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21270" yWindow="-3015" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0005" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -397,7 +397,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -413,13 +413,16 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B6">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
